--- a/data/trans_camb/P3A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>28.26593914904483</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31.83016103641487</v>
+        <v>31.83016103641488</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.756164375579253</v>
@@ -655,7 +655,7 @@
         <v>8.092600989332844</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>12.75539617147872</v>
+        <v>12.75539617147871</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.13702486202418</v>
@@ -664,7 +664,7 @@
         <v>21.40307292208875</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>25.91813472494233</v>
+        <v>25.91813472494234</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.297207472823205</v>
+        <v>4.115844299080481</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>21.5343248320869</v>
+        <v>20.89942665044662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25.19101793945216</v>
+        <v>25.6425256889987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.022564023238346</v>
+        <v>-0.6408994152468381</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.028034512956232</v>
+        <v>2.071103377228027</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.157820273843756</v>
+        <v>7.813041609808794</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.111164398697241</v>
+        <v>4.709828946277704</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.84418281070831</v>
+        <v>16.38297165334688</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>21.58425450261123</v>
+        <v>21.50395630044222</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.28126648259254</v>
+        <v>18.95243189945553</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>34.96228236384687</v>
+        <v>34.9098984106847</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37.93740208581033</v>
+        <v>37.30766853773049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.61373838710349</v>
+        <v>12.0939528048667</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.96813604997135</v>
+        <v>14.03537516241132</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.97708051364879</v>
+        <v>18.1516109980402</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.62687958215438</v>
+        <v>14.88412784867228</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.65351884387176</v>
+        <v>26.11598401433472</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>30.27338968684983</v>
+        <v>30.03920831198414</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.716760003009331</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8071405729683379</v>
+        <v>0.8071405729683382</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07252584521369192</v>
@@ -760,7 +760,7 @@
         <v>0.1019642054036132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.16071394560877</v>
+        <v>0.1607139456087699</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1838266293128845</v>
@@ -769,7 +769,7 @@
         <v>0.3881271680554806</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4700041096290654</v>
+        <v>0.4700041096290656</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1323973021016056</v>
+        <v>0.1009418103514242</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4983546803643691</v>
+        <v>0.4936209342804345</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5873570756990707</v>
+        <v>0.5985799946617526</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01214710564955915</v>
+        <v>-0.005772198827947635</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02469517881181647</v>
+        <v>0.02485385351885599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08584507907655772</v>
+        <v>0.09547651375534397</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0883603199873432</v>
+        <v>0.08136681488046038</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2885615639717032</v>
+        <v>0.2858044283762883</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3746054841970304</v>
+        <v>0.3689352011424882</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5103272751071827</v>
+        <v>0.5388154021873297</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9672937607443393</v>
+        <v>0.9845606321949427</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.082118558063668</v>
+        <v>1.063096277047858</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1549159700307229</v>
+        <v>0.1606995290722674</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1849453365372117</v>
+        <v>0.1857188041971187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2389115677393721</v>
+        <v>0.2452331754634225</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2995794593285434</v>
+        <v>0.2792480903588146</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5091438788976212</v>
+        <v>0.5049078644137212</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5851700768341465</v>
+        <v>0.5751974775134149</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>18.0767993897698</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22.29688058570031</v>
+        <v>22.29688058570029</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.010678858873153</v>
@@ -869,7 +869,7 @@
         <v>9.477847690965946</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>10.20659338208284</v>
+        <v>10.20659338208283</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.047102522429902</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3038953788070146</v>
+        <v>-0.5385811321943522</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.91841725845393</v>
+        <v>10.15166836396756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.93219047373855</v>
+        <v>15.30469124468484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05651267569589172</v>
+        <v>-0.1578759207577566</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.839360363576549</v>
+        <v>5.454283589466112</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.871452383608626</v>
+        <v>5.703836476885024</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7520180389595115</v>
+        <v>-0.5072276174148413</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.63435547658082</v>
+        <v>8.866293341673847</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>10.99070703528112</v>
+        <v>10.61469961208088</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.04177270096255</v>
+        <v>14.58799722773396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.85629841977221</v>
+        <v>24.59870950463591</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29.40032946252785</v>
+        <v>29.78468267864045</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.45681929672013</v>
+        <v>10.20375148461822</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.81522751151725</v>
+        <v>14.31807266919383</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.86848580045062</v>
+        <v>14.44483628701024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.033024859401873</v>
+        <v>8.971327818598397</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.00684992146465</v>
+        <v>18.42340874625834</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.00912295636151</v>
+        <v>19.45683534779703</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3836822690086</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4732540064463394</v>
+        <v>0.4732540064463389</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05971933923080063</v>
@@ -974,7 +974,7 @@
         <v>0.1129609015816962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1216463935811937</v>
+        <v>0.1216463935811936</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.06166388259906207</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.006671386375813062</v>
+        <v>-0.006279911262627026</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2031391007800583</v>
+        <v>0.203044726263581</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2882588597026807</v>
+        <v>0.3058335123717963</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0006475505598587222</v>
+        <v>-0.0011576391481527</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05565497466357332</v>
+        <v>0.06464347695683414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06761099585659816</v>
+        <v>0.06543355808631568</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01092313969529319</v>
+        <v>-0.007639163312244613</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1286000621111441</v>
+        <v>0.1327535754306643</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1597996986873014</v>
+        <v>0.1545943432415819</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3502485591916769</v>
+        <v>0.3401083758220738</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5916371749187511</v>
+        <v>0.573029696652924</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6875830272378413</v>
+        <v>0.7094815368878964</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1292212283227223</v>
+        <v>0.1296600321982062</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1707426070911258</v>
+        <v>0.1806186212094622</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1855873386486083</v>
+        <v>0.177808496546969</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1431514390268862</v>
+        <v>0.1415587442150483</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2861404280373933</v>
+        <v>0.2947020491494208</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3191335965364419</v>
+        <v>0.3097542893017412</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>3.204865956742642</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.966678763187991</v>
+        <v>2.96667876318798</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>11.7080848190065</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.460239047508489</v>
+        <v>7.715716557234742</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.11208981394906</v>
+        <v>15.31969780529318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24.90978024031842</v>
+        <v>24.49603362253945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.011332095594936</v>
+        <v>-8.727383671415108</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.335999407888471</v>
+        <v>-3.634451435127923</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.364412774310426</v>
+        <v>-4.341046325500821</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.757481413156846</v>
+        <v>6.721988342002663</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.92679122909111</v>
+        <v>12.08228903046918</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>20.21689856759591</v>
+        <v>20.24154701441628</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.04111292245959</v>
+        <v>18.95571638869483</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.41715614559067</v>
+        <v>27.02409952247811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.00318132321731</v>
+        <v>37.05510809305285</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.450542054666111</v>
+        <v>4.642047481228998</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.408252028216932</v>
+        <v>10.43299742180371</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.717889958526499</v>
+        <v>9.650982192698599</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.52387493363877</v>
+        <v>16.60635858812686</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>22.78915362530909</v>
+        <v>22.87400985325558</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>30.59979470941972</v>
+        <v>30.58915303444433</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.03637113741406827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03366801682681834</v>
+        <v>0.03366801682681821</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2498552063616756</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2003608470992588</v>
+        <v>0.2125845884312327</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4061764660043524</v>
+        <v>0.4237344947249785</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6591522939849552</v>
+        <v>0.6614058884442943</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09864980205032746</v>
+        <v>-0.09673826624645403</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03647084625307595</v>
+        <v>-0.03898791210082772</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04782087670248446</v>
+        <v>-0.04743346251072746</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1386301173684778</v>
+        <v>0.1339568410156487</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2381664679057437</v>
+        <v>0.2444419889178563</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.403327549678955</v>
+        <v>0.4103641017285726</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.624441044121675</v>
+        <v>0.6142742138420787</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8830741992004704</v>
+        <v>0.8779977953477888</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.210344684042879</v>
+        <v>1.211118998483564</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05334478891246337</v>
+        <v>0.05631951877104515</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1120417569426804</v>
+        <v>0.1246645199197725</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1163035065330848</v>
+        <v>0.1166789735602236</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3814142925219878</v>
+        <v>0.3807897693828114</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5142693632369784</v>
+        <v>0.5225761276042259</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6907172335736814</v>
+        <v>0.7046894349458075</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.924053350105772</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.521244155023</v>
+        <v>8.521244155023011</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>9.098159754115864</v>
@@ -1306,7 +1306,7 @@
         <v>16.15663855390622</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>26.23242429987016</v>
+        <v>26.23242429987018</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.376460217266568</v>
+        <v>6.158874307252042</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.15430058127684</v>
+        <v>16.04923979324117</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29.47130739046135</v>
+        <v>29.08298656235195</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.474033017763473</v>
+        <v>-0.2631146261358198</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5228851748670907</v>
+        <v>0.3830694430041163</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.498216189864743</v>
+        <v>5.85280285856286</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.126894449463961</v>
+        <v>5.638688836600761</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>13.09220896418396</v>
+        <v>13.43325251856287</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>23.18494112062083</v>
+        <v>23.26908555252054</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.06123927013904</v>
+        <v>14.25745367710484</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.2394916857424</v>
+        <v>24.04397940592576</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37.30143953479122</v>
+        <v>37.32358073916753</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.712867697264034</v>
+        <v>6.539851464822542</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.301373740970829</v>
+        <v>7.213916308246519</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.51381821436848</v>
+        <v>11.73611433597601</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.58573782850519</v>
+        <v>11.82934195213445</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>19.10380415400227</v>
+        <v>19.42898934079057</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>29.31852027721062</v>
+        <v>29.29283612785377</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.04548564527528066</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09877396007599828</v>
+        <v>0.09877396007599842</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1728375127497269</v>
@@ -1411,7 +1411,7 @@
         <v>0.306927257546805</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4983367067536892</v>
+        <v>0.4983367067536897</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1828508200859703</v>
+        <v>0.1750793520501523</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4558194282218615</v>
+        <v>0.4529843297627637</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8384007481625503</v>
+        <v>0.8213744429500179</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.00541270807937363</v>
+        <v>-0.0029740224232719</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.005909522112989798</v>
+        <v>0.00449410322805709</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0621304372031565</v>
+        <v>0.06599056753284883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1147653052890824</v>
+        <v>0.1049851965819361</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2393211453725165</v>
+        <v>0.2475727013474901</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4236186248886203</v>
+        <v>0.4295045870539655</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4468902599131349</v>
+        <v>0.4557091059076375</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7654212862437746</v>
+        <v>0.770277596391255</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.193012628379801</v>
+        <v>1.208556677448648</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.0792672681143798</v>
+        <v>0.07782005118934997</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0862338509851682</v>
+        <v>0.08569363591737424</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1377434927004693</v>
+        <v>0.1395414380953825</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2453144749139633</v>
+        <v>0.2321701735087939</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3739328220489503</v>
+        <v>0.3804945159106119</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.58195485351581</v>
+        <v>0.5808005025543278</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>10.29250142542525</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26.93087486920409</v>
+        <v>26.93087486920408</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-3.695406853926575</v>
@@ -1511,7 +1511,7 @@
         <v>0.7146072779881552</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.434174534015622</v>
+        <v>3.434174534015633</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.415824471090998</v>
@@ -1520,7 +1520,7 @@
         <v>0.9286350805167265</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>11.61651317003614</v>
+        <v>11.61651317003611</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.49601235118768</v>
+        <v>-2.080801139009324</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.363883984900728</v>
+        <v>4.234508160203167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19.84501696940218</v>
+        <v>20.7953724271325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.91569902946199</v>
+        <v>-7.201982063745185</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.621369215078897</v>
+        <v>-2.284632098221504</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5230049945565481</v>
+        <v>0.9325488474558796</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.268863361264146</v>
+        <v>-5.389873053259508</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.175182621062812</v>
+        <v>-2.637743750141397</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.391250931678647</v>
+        <v>8.271220860544503</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.89491061652095</v>
+        <v>11.35123634335096</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.63432104333443</v>
+        <v>17.32332980241145</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34.26688966970623</v>
+        <v>34.30880295041799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06836770092256918</v>
+        <v>0.0153273508510433</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.853381986314802</v>
+        <v>3.770522110679349</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.205990205120104</v>
+        <v>6.398890467234892</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.770104041607877</v>
+        <v>2.696545431566601</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.85775048724941</v>
+        <v>4.844428334786818</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.20972665747945</v>
+        <v>15.51319661482475</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2879195204381207</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7533566678131323</v>
+        <v>0.7533566678131319</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04073612581730637</v>
@@ -1616,7 +1616,7 @@
         <v>0.007877436270692893</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03785644488579212</v>
+        <v>0.03785644488579224</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.02029708546924581</v>
@@ -1625,7 +1625,7 @@
         <v>0.01331279829092354</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1665329039588897</v>
+        <v>0.1665329039588894</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04018630141909235</v>
+        <v>-0.05070944589612172</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.08200128605771778</v>
+        <v>0.110509679814314</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5003551269372146</v>
+        <v>0.5332620595411155</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07456172374986453</v>
+        <v>-0.07809875599100498</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02845207357732122</v>
+        <v>-0.02479416892677141</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004994340616897921</v>
+        <v>0.01004054299314978</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07331740778119909</v>
+        <v>-0.07462174531377788</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04341477079143526</v>
+        <v>-0.03666544901301681</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1022673336274582</v>
+        <v>0.1147121195625032</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3806480493183054</v>
+        <v>0.3700816901280087</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5258561175528949</v>
+        <v>0.5654925105906771</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.094965739971687</v>
+        <v>1.130443239478561</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.0007928844557211117</v>
+        <v>1.423465539242134e-05</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04350175952409726</v>
+        <v>0.04296079664081255</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07022240067449928</v>
+        <v>0.07189748194163889</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04061013792081536</v>
+        <v>0.04044504404239954</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07170438433655967</v>
+        <v>0.07085715532798978</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2269382973945898</v>
+        <v>0.2294859680228347</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.7609592516291008</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.4355597677152101</v>
+        <v>0.4355597677152212</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-4.385024800178705</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.659945671114144</v>
+        <v>-3.701966462856268</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>6.699142070618376</v>
+        <v>6.641270984180967</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22.38283664146716</v>
+        <v>22.05886403194278</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.162546785524436</v>
+        <v>-9.337360695435944</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.898925770511781</v>
+        <v>-3.988867610620354</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.417959175294753</v>
+        <v>-3.261473405375365</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.955899357308521</v>
+        <v>-8.043138495092087</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.511765284717743</v>
+        <v>-2.448071302210779</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.267683434826655</v>
+        <v>1.703408927345742</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.492460046045142</v>
+        <v>7.694896489814869</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>19.95594687045206</v>
+        <v>19.45347555900486</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>43.16601204975403</v>
+        <v>43.61117475583865</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-2.357545153366039</v>
+        <v>-2.635584113792725</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.827719320217711</v>
+        <v>2.470494710445397</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.290824914622227</v>
+        <v>4.292967179836197</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-0.750062718851129</v>
+        <v>-0.6371541581881217</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.528092089798579</v>
+        <v>4.344660819549006</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.793438239396632</v>
+        <v>9.824527070980645</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.009449428371875417</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.005408687545205969</v>
+        <v>0.005408687545206107</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.06520340094778281</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2415602321564718</v>
+        <v>-0.275549231619351</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4769909272747944</v>
+        <v>0.4171918623222379</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.502313801034848</v>
+        <v>1.584726665363659</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1115839052096864</v>
+        <v>-0.1144341149438164</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.04746885228698561</v>
+        <v>-0.04870640079433284</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.0416704673032143</v>
+        <v>-0.04026136651545707</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1151094914313157</v>
+        <v>-0.1175004725447215</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.03669261362560192</v>
+        <v>-0.03539304911535338</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.0180856943839329</v>
+        <v>0.02573335887477466</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8188749748210858</v>
+        <v>0.8517470888440216</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.159093500719626</v>
+        <v>2.056029489124322</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.549325115092444</v>
+        <v>5.002230220443611</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.02979625962736782</v>
+        <v>-0.03312074855422702</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.03567460208255629</v>
+        <v>0.03115525007820006</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05475086968111278</v>
+        <v>0.05378764215477563</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.01140675955818479</v>
+        <v>-0.009967832090130928</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.06897725716081946</v>
+        <v>0.06570285540897021</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1487614556393</v>
+        <v>0.150590682759744</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>11.08919825074004</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>18.91962101024999</v>
+        <v>18.91962101025</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>7.188654024614154</v>
+        <v>7.103949512445876</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>16.55307995416507</v>
+        <v>16.50144636395731</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28.80372741435597</v>
+        <v>28.85784438314348</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.344693562496144</v>
+        <v>-2.258056377356883</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.742215594372022</v>
+        <v>1.618210991593271</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.009482231038823</v>
+        <v>5.130191726430013</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.857749706615172</v>
+        <v>2.859611024925059</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>9.446966002045516</v>
+        <v>9.399980031735284</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>17.16320328331835</v>
+        <v>17.19875716132429</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.9802639747083</v>
+        <v>11.92301719413917</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>21.23289906733552</v>
+        <v>21.32717696529149</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>33.85627237493368</v>
+        <v>33.76031897779078</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.309320940713455</v>
+        <v>1.227440139165838</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.051052179329407</v>
+        <v>5.138475466067481</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.364428014918326</v>
+        <v>8.204350882290914</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.289662644271186</v>
+        <v>6.264418450891764</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>12.68662396060035</v>
+        <v>12.75165744785347</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.60032986570871</v>
+        <v>20.51921592029251</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.1862937314586112</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3178414449887749</v>
+        <v>0.3178414449887751</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2044295986671208</v>
+        <v>0.2005845115119224</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4698804395207419</v>
+        <v>0.466068557837644</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.8111682790757121</v>
+        <v>0.8163508567190164</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.02747624752547747</v>
+        <v>-0.02672457508802769</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.02056354164707462</v>
+        <v>0.01912920610545588</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0590805199192056</v>
+        <v>0.06053290234826491</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04571462546314699</v>
+        <v>0.04711280747733444</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1562607609020322</v>
+        <v>0.1546860606638281</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2839678028644895</v>
+        <v>0.2822370625613979</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.365127194137689</v>
+        <v>0.3646367109294852</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6502697575623625</v>
+        <v>0.6511356531294252</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.0307523121796</v>
+        <v>1.038306212354771</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01570632311026627</v>
+        <v>0.01489586404984154</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.06062185607621258</v>
+        <v>0.06185163231976341</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1007768471738223</v>
+        <v>0.09913652639753855</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1069471291449662</v>
+        <v>0.1065145968557238</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2175362897007728</v>
+        <v>0.2175988935414218</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3525662372009452</v>
+        <v>0.3489598944925773</v>
       </c>
     </row>
     <row r="46">
